--- a/data/trans_orig/P15B_tráfico-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15B_tráfico-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5452</v>
+        <v>5111</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1939179558901503</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.586567502501383</v>
+        <v>0.5499358610341267</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4743</v>
+        <v>4652</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2762550320348338</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6691322776081838</v>
+        <v>0.6562761617954075</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>3760</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>911</v>
+        <v>975</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7560</v>
+        <v>8127</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2295426096743394</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05558368634140053</v>
+        <v>0.05949197197906938</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4615103816747747</v>
+        <v>0.4961430144628888</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>7492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3842</v>
+        <v>4183</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>9294</v>
@@ -824,7 +824,7 @@
         <v>0.8060820441098497</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4134324974986171</v>
+        <v>0.450064138965887</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>5130</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2345</v>
+        <v>2436</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>7088</v>
@@ -845,7 +845,7 @@
         <v>0.7237449679651662</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3308677223918161</v>
+        <v>0.3437238382045921</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>12621</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8821</v>
+        <v>8254</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15470</v>
+        <v>15406</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7704573903256606</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5384896183252262</v>
+        <v>0.5038569855371111</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9444163136585995</v>
+        <v>0.9405080280209307</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +961,7 @@
         <v>6811</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3318</v>
+        <v>3603</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>7852</v>
@@ -970,7 +970,7 @@
         <v>0.86747410417135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4225382275157931</v>
+        <v>0.458884519417579</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -982,19 +982,19 @@
         <v>3023</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6253</v>
+        <v>6615</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.337264505106428</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09617907586087968</v>
+        <v>0.09776235813777952</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6975168022068651</v>
+        <v>0.7379362282637858</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -1003,19 +1003,19 @@
         <v>9834</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5617</v>
+        <v>5331</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13686</v>
+        <v>13886</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5848437530410212</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3340523214526525</v>
+        <v>0.3170287036075775</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8139123836070601</v>
+        <v>0.8257936095743493</v>
       </c>
     </row>
     <row r="8">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4534</v>
+        <v>4249</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1325258958286501</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5774617724842069</v>
+        <v>0.5411154805824238</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1053,19 +1053,19 @@
         <v>5941</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2711</v>
+        <v>2349</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8102</v>
+        <v>8088</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.662735494893572</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3024831977931368</v>
+        <v>0.2620637717362115</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9038209241391203</v>
+        <v>0.9022376418622204</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1074,19 +1074,19 @@
         <v>6981</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3129</v>
+        <v>2929</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11198</v>
+        <v>11484</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4151562469589787</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1860876163929397</v>
+        <v>0.1742063904256506</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6659476785473475</v>
+        <v>0.6829712963924225</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>6319</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2442</v>
+        <v>2333</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11709</v>
+        <v>11206</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3466728371827507</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1339516910945479</v>
+        <v>0.1279756376428731</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6423274105310866</v>
+        <v>0.6147547476501367</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1212,19 +1212,19 @@
         <v>6320</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2150</v>
+        <v>2618</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11903</v>
+        <v>12108</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2816966371683429</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09582426663975267</v>
+        <v>0.1166797754554699</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5305833441928272</v>
+        <v>0.5397085214524027</v>
       </c>
     </row>
     <row r="11">
@@ -1241,19 +1241,19 @@
         <v>11910</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6520</v>
+        <v>7023</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15787</v>
+        <v>15896</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6533271628172492</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3576725894689134</v>
+        <v>0.3852452523498643</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.866048308905452</v>
+        <v>0.8720243623571269</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1275,19 +1275,19 @@
         <v>16114</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10531</v>
+        <v>10326</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20284</v>
+        <v>19816</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7183033628316571</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4694166558071727</v>
+        <v>0.4602914785475973</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9041757333602474</v>
+        <v>0.8833202245445301</v>
       </c>
     </row>
     <row r="12">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5674</v>
+        <v>5640</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1060119142336778</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3184154150107576</v>
+        <v>0.3165142768274257</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1400,19 +1400,19 @@
         <v>3379</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>953</v>
+        <v>917</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7113</v>
+        <v>7032</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3450681966564881</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09732661745616024</v>
+        <v>0.0936628331126126</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7263626369584082</v>
+        <v>0.718047503618696</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1421,19 +1421,19 @@
         <v>5268</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1921</v>
+        <v>1959</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10624</v>
+        <v>10925</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1907996389554642</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06956202663263088</v>
+        <v>0.07095720430135112</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3847563702716414</v>
+        <v>0.3956719687020002</v>
       </c>
     </row>
     <row r="14">
@@ -1450,7 +1450,7 @@
         <v>15929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12144</v>
+        <v>12178</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>17818</v>
@@ -1459,7 +1459,7 @@
         <v>0.8939880857663222</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6815845849892423</v>
+        <v>0.6834857231725743</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1471,19 +1471,19 @@
         <v>6414</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2680</v>
+        <v>2761</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8840</v>
+        <v>8876</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6549318033435119</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.273637363041596</v>
+        <v>0.2819524963813023</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9026733825438398</v>
+        <v>0.9063371668873874</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -1492,19 +1492,19 @@
         <v>22343</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16987</v>
+        <v>16686</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25690</v>
+        <v>25652</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8092003610445357</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6152436297283586</v>
+        <v>0.6043280312980005</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9304379733673691</v>
+        <v>0.9290427956986489</v>
       </c>
     </row>
     <row r="15">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4074</v>
+        <v>3934</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1227610178256947</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5566097563834538</v>
+        <v>0.5375443848676872</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5421</v>
+        <v>4473</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2559284614342696</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6944738670216191</v>
+        <v>0.5730323181052885</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1638,19 +1638,19 @@
         <v>2896</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6953</v>
+        <v>6988</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1914908653253158</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05587514885131727</v>
+        <v>0.05557919759637827</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4596744895983603</v>
+        <v>0.4620302397062084</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>6421</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3245</v>
+        <v>3385</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>7319</v>
@@ -1676,7 +1676,7 @@
         <v>0.8772389821743053</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4433902436165462</v>
+        <v>0.4624556151323126</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1688,7 +1688,7 @@
         <v>5808</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2385</v>
+        <v>3333</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>7806</v>
@@ -1697,7 +1697,7 @@
         <v>0.7440715385657304</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3055261329783822</v>
+        <v>0.4269676818947113</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1709,19 +1709,19 @@
         <v>12229</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8172</v>
+        <v>8137</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14280</v>
+        <v>14284</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8085091346746842</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5403255104016398</v>
+        <v>0.537969760293792</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9441248511486828</v>
+        <v>0.9444208024036218</v>
       </c>
     </row>
     <row r="18">
@@ -1982,19 +1982,19 @@
         <v>7833</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3707</v>
+        <v>3962</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13571</v>
+        <v>14084</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2870857630226269</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1358505410714017</v>
+        <v>0.1452011594922535</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4973818267548101</v>
+        <v>0.5162139371866994</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2003,19 +2003,19 @@
         <v>3950</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1000</v>
+        <v>953</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8267</v>
+        <v>7988</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2145040048382699</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0543055135677298</v>
+        <v>0.05172664263514339</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4489329563355548</v>
+        <v>0.4337534079915506</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2024,19 +2024,19 @@
         <v>11783</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6778</v>
+        <v>6687</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18116</v>
+        <v>18160</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.257837613603791</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1483221560255454</v>
+        <v>0.1463334187706382</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3964184060985398</v>
+        <v>0.3973838459706474</v>
       </c>
     </row>
     <row r="23">
@@ -2053,19 +2053,19 @@
         <v>19451</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13713</v>
+        <v>13200</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23577</v>
+        <v>23322</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.712914236977373</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5026181732451899</v>
+        <v>0.4837860628133008</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8641494589285985</v>
+        <v>0.8547988405077468</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -2074,19 +2074,19 @@
         <v>14465</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10148</v>
+        <v>10427</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17415</v>
+        <v>17462</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7854959951617302</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5510670436644451</v>
+        <v>0.5662465920084495</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9456944864322702</v>
+        <v>0.9482733573648566</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -2095,19 +2095,19 @@
         <v>33917</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>27584</v>
+        <v>27540</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>38922</v>
+        <v>39013</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.742162386396209</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6035815939014602</v>
+        <v>0.6026161540293525</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8516778439744547</v>
+        <v>0.8536665812293619</v>
       </c>
     </row>
     <row r="24">
@@ -2199,19 +2199,19 @@
         <v>14210</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8451</v>
+        <v>9166</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19052</v>
+        <v>19511</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5384845004598672</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3202349315621474</v>
+        <v>0.3473319898064135</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7219710857644936</v>
+        <v>0.7393583027342709</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2220,19 +2220,19 @@
         <v>5393</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2118</v>
+        <v>2110</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10662</v>
+        <v>10667</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2002361055431917</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07865404941189751</v>
+        <v>0.07833129070673565</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3958858642646749</v>
+        <v>0.3960608733141938</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -2241,19 +2241,19 @@
         <v>19603</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12887</v>
+        <v>12428</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26677</v>
+        <v>27026</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3676340083957187</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2416885009477436</v>
+        <v>0.2330757938385182</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5002978152943096</v>
+        <v>0.5068477268897857</v>
       </c>
     </row>
     <row r="26">
@@ -2270,19 +2270,19 @@
         <v>12179</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7337</v>
+        <v>6878</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17938</v>
+        <v>17223</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4615154995401329</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2780289142355065</v>
+        <v>0.2606416972657289</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6797650684378526</v>
+        <v>0.6526680101935863</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -2291,19 +2291,19 @@
         <v>21540</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16271</v>
+        <v>16266</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24815</v>
+        <v>24823</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7997638944568083</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6041141357353254</v>
+        <v>0.6039391266858062</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9213459505881025</v>
+        <v>0.9216687092932644</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>33</v>
@@ -2312,19 +2312,19 @@
         <v>33719</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>26645</v>
+        <v>26296</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40435</v>
+        <v>40894</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6323659916042813</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4997021847056904</v>
+        <v>0.4931522731102147</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7583114990522564</v>
+        <v>0.7669242061614818</v>
       </c>
     </row>
     <row r="27">
@@ -2416,19 +2416,19 @@
         <v>39763</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29408</v>
+        <v>29914</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>51030</v>
+        <v>51437</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3230764347150515</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2389397888752874</v>
+        <v>0.2430528341255305</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4146209890218554</v>
+        <v>0.4179216967580174</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -2437,19 +2437,19 @@
         <v>19701</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12353</v>
+        <v>12532</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28571</v>
+        <v>28174</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2100223889760512</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1316904500080397</v>
+        <v>0.133595793279521</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3045724217322173</v>
+        <v>0.3003397287403855</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>56</v>
@@ -2458,19 +2458,19 @@
         <v>59465</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>46697</v>
+        <v>45412</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>73896</v>
+        <v>73287</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2741784395234172</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2153103892925158</v>
+        <v>0.2093866616748172</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3407194650105247</v>
+        <v>0.3379099505237056</v>
       </c>
     </row>
     <row r="29">
@@ -2487,19 +2487,19 @@
         <v>83314</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>72047</v>
+        <v>71640</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>93669</v>
+        <v>93163</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6769235652849485</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5853790109781448</v>
+        <v>0.5820783032419826</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.761060211124713</v>
+        <v>0.7569471658744694</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>71</v>
@@ -2508,19 +2508,19 @@
         <v>74105</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>65235</v>
+        <v>65632</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>81453</v>
+        <v>81274</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7899776110239487</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6954275782677825</v>
+        <v>0.6996602712596148</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8683095499919603</v>
+        <v>0.866404206720479</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>153</v>
@@ -2529,19 +2529,19 @@
         <v>157418</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>142987</v>
+        <v>143596</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>170186</v>
+        <v>171471</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7258215604765827</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6592805349894755</v>
+        <v>0.6620900494762944</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7846896107074846</v>
+        <v>0.7906133383251815</v>
       </c>
     </row>
     <row r="30">
@@ -2877,19 +2877,19 @@
         <v>17470</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11761</v>
+        <v>11911</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23803</v>
+        <v>24167</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4716815554216603</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3175503433668252</v>
+        <v>0.3216055884502715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6426863206858463</v>
+        <v>0.6525038246077793</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2898,19 +2898,19 @@
         <v>7856</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3680</v>
+        <v>3187</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13543</v>
+        <v>13845</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2843985368633162</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1332168831392721</v>
+        <v>0.1153912373044506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4902653958571216</v>
+        <v>0.5012239152050516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -2919,19 +2919,19 @@
         <v>25326</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17336</v>
+        <v>17176</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33912</v>
+        <v>33760</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3916722721829823</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.268105961237162</v>
+        <v>0.2656401771527525</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5244691910245929</v>
+        <v>0.5221187486051637</v>
       </c>
     </row>
     <row r="5">
@@ -2948,19 +2948,19 @@
         <v>19567</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13234</v>
+        <v>12870</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25276</v>
+        <v>25126</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5283184445783397</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3573136793141538</v>
+        <v>0.3474961753922204</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.682449656633175</v>
+        <v>0.6783944115497282</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -2969,19 +2969,19 @@
         <v>19767</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14080</v>
+        <v>13778</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23943</v>
+        <v>24436</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7156014631366838</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5097346041428784</v>
+        <v>0.4987760847949488</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8667831168607276</v>
+        <v>0.8846087626955494</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -2990,19 +2990,19 @@
         <v>39334</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30748</v>
+        <v>30900</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47324</v>
+        <v>47484</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6083277278170177</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4755308089754071</v>
+        <v>0.4778812513948364</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7318940387628379</v>
+        <v>0.7343598228472475</v>
       </c>
     </row>
     <row r="6">
@@ -3094,19 +3094,19 @@
         <v>12622</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7970</v>
+        <v>7319</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18696</v>
+        <v>18595</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3940939496654871</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2488449466890837</v>
+        <v>0.2285304239764783</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5837430860822517</v>
+        <v>0.5805839858064659</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -3115,19 +3115,19 @@
         <v>6143</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2914</v>
+        <v>2087</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11616</v>
+        <v>11635</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2030222210968548</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09631273854948062</v>
+        <v>0.06897668527837714</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.383927036843041</v>
+        <v>0.38455833450777</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -3136,19 +3136,19 @@
         <v>18765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12287</v>
+        <v>11914</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26778</v>
+        <v>25956</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.301275757928044</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1972737505316386</v>
+        <v>0.1912839844274124</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4299283987670615</v>
+        <v>0.4167355499763624</v>
       </c>
     </row>
     <row r="8">
@@ -3165,19 +3165,19 @@
         <v>19406</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13332</v>
+        <v>13433</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24058</v>
+        <v>24709</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6059060503345129</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4162569139177483</v>
+        <v>0.4194160141935343</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7511550533109164</v>
+        <v>0.7714695760235217</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -3186,19 +3186,19 @@
         <v>24113</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18640</v>
+        <v>18621</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27342</v>
+        <v>28169</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7969777789031451</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.616072963156959</v>
+        <v>0.6154416654922299</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9036872614505194</v>
+        <v>0.9310233147216229</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -3207,19 +3207,19 @@
         <v>43519</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35506</v>
+        <v>36328</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49997</v>
+        <v>50370</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.698724242071956</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5700716012329384</v>
+        <v>0.5832644500236377</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8027262494683611</v>
+        <v>0.8087160155725882</v>
       </c>
     </row>
     <row r="9">
@@ -3311,19 +3311,19 @@
         <v>3857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7853</v>
+        <v>9737</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07297056483860004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01800459162779026</v>
+        <v>0.0180671308548143</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1485795109140622</v>
+        <v>0.1842269553153041</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3332,19 +3332,19 @@
         <v>4772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1041</v>
+        <v>1059</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10650</v>
+        <v>11080</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1166367550583503</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0254399504736246</v>
+        <v>0.025888017001577</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2603124408209845</v>
+        <v>0.2708220538380972</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -3353,19 +3353,19 @@
         <v>8628</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3971</v>
+        <v>3862</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16165</v>
+        <v>15957</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09202310248395205</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04235604389247563</v>
+        <v>0.041188268938375</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.172396828078215</v>
+        <v>0.1701840859964681</v>
       </c>
     </row>
     <row r="11">
@@ -3382,19 +3382,19 @@
         <v>48996</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45000</v>
+        <v>43116</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51901</v>
+        <v>51898</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9270294351613999</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8514204890859379</v>
+        <v>0.815773044684696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9819954083722098</v>
+        <v>0.9819328691451857</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -3403,19 +3403,19 @@
         <v>36139</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30261</v>
+        <v>29831</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39870</v>
+        <v>39852</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8833632449416496</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7396875591790152</v>
+        <v>0.7291779461619029</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9745600495263754</v>
+        <v>0.9741119829984231</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>86</v>
@@ -3424,19 +3424,19 @@
         <v>85136</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>77599</v>
+        <v>77807</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>89793</v>
+        <v>89902</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9079768975160479</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8276031719217851</v>
+        <v>0.8298159140035308</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9576439561075244</v>
+        <v>0.958811731061625</v>
       </c>
     </row>
     <row r="12">
@@ -3528,19 +3528,19 @@
         <v>7912</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2889</v>
+        <v>2901</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14989</v>
+        <v>14355</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2490509688263107</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09095552057152143</v>
+        <v>0.09133256563671317</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4718420571481745</v>
+        <v>0.4518757621439611</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4671</v>
+        <v>4028</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05363276239833437</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2678942138559668</v>
+        <v>0.2310430544442579</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -3570,19 +3570,19 @@
         <v>8847</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3811</v>
+        <v>3195</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16039</v>
+        <v>15881</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1798001531709267</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0774449547605551</v>
+        <v>0.06494172422361581</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3259693589137114</v>
+        <v>0.3227638770959991</v>
       </c>
     </row>
     <row r="14">
@@ -3599,19 +3599,19 @@
         <v>23855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16778</v>
+        <v>17412</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28878</v>
+        <v>28866</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7509490311736893</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5281579428518255</v>
+        <v>0.5481242378560393</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9090444794284787</v>
+        <v>0.908667434363287</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -3620,7 +3620,7 @@
         <v>16501</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12765</v>
+        <v>13408</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>17436</v>
@@ -3629,7 +3629,7 @@
         <v>0.9463672376016656</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7321057861440337</v>
+        <v>0.7689569455557433</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3641,19 +3641,19 @@
         <v>40357</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33165</v>
+        <v>33323</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>45393</v>
+        <v>46009</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8201998468290733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.674030641086289</v>
+        <v>0.677236122904</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.922555045239445</v>
+        <v>0.9350582757763832</v>
       </c>
     </row>
     <row r="15">
@@ -3745,19 +3745,19 @@
         <v>3819</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>931</v>
+        <v>901</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7771</v>
+        <v>7706</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2899073180573437</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07069726777305499</v>
+        <v>0.06840740466906101</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.589988599251514</v>
+        <v>0.5850413968291265</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3766,19 +3766,19 @@
         <v>9496</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5028</v>
+        <v>4968</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14222</v>
+        <v>14258</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4796335276604322</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2539457512406776</v>
+        <v>0.2509420979848086</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7183397231070778</v>
+        <v>0.7201599702474817</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -3787,19 +3787,19 @@
         <v>13315</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8426</v>
+        <v>7974</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19573</v>
+        <v>19269</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4038343064592721</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2555516191579802</v>
+        <v>0.241838623354763</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.593640485065939</v>
+        <v>0.584432563791092</v>
       </c>
     </row>
     <row r="17">
@@ -3816,19 +3816,19 @@
         <v>9353</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5401</v>
+        <v>5466</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12241</v>
+        <v>12271</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7100926819426563</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.410011400748486</v>
+        <v>0.4149586031708734</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9293027322269449</v>
+        <v>0.931592595330939</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -3837,19 +3837,19 @@
         <v>10302</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5576</v>
+        <v>5540</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14770</v>
+        <v>14830</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5203664723395678</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2816602768929222</v>
+        <v>0.2798400297525181</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7460542487593229</v>
+        <v>0.7490579020151914</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -3858,19 +3858,19 @@
         <v>19656</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13398</v>
+        <v>13702</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24545</v>
+        <v>24997</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5961656935407279</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4063595149340609</v>
+        <v>0.4155674362089082</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7444483808420198</v>
+        <v>0.7581613766452371</v>
       </c>
     </row>
     <row r="18">
@@ -3962,19 +3962,19 @@
         <v>8681</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4028</v>
+        <v>3863</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15225</v>
+        <v>15537</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2860195056764881</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1326998559068205</v>
+        <v>0.127267925872573</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5016230972834378</v>
+        <v>0.5118996411493391</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -3983,19 +3983,19 @@
         <v>4923</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1878</v>
+        <v>1771</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9769</v>
+        <v>10271</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1390088273649876</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05303454506746216</v>
+        <v>0.05002089608085003</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2758436110550448</v>
+        <v>0.2900272003945985</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -4004,19 +4004,19 @@
         <v>13604</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7085</v>
+        <v>7792</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21900</v>
+        <v>21886</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.206854793043967</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1077263780359138</v>
+        <v>0.1184871219167128</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3330041258207246</v>
+        <v>0.3327866840082651</v>
       </c>
     </row>
     <row r="20">
@@ -4033,19 +4033,19 @@
         <v>21670</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15126</v>
+        <v>14814</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26323</v>
+        <v>26488</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.713980494323512</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4983769027165622</v>
+        <v>0.4881003588506602</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8673001440931795</v>
+        <v>0.8727320741274269</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -4054,19 +4054,19 @@
         <v>30492</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25646</v>
+        <v>25144</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33537</v>
+        <v>33644</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8609911726350123</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7241563889449552</v>
+        <v>0.7099727996054015</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9469654549325378</v>
+        <v>0.9499791039191496</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>50</v>
@@ -4075,19 +4075,19 @@
         <v>52162</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>43866</v>
+        <v>43880</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>58681</v>
+        <v>57974</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.793145206956033</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6669958741792757</v>
+        <v>0.6672133159917349</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8922736219640863</v>
+        <v>0.8815128780832872</v>
       </c>
     </row>
     <row r="21">
@@ -4179,19 +4179,19 @@
         <v>8784</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4104</v>
+        <v>4586</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15329</v>
+        <v>15157</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1335935818620778</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06241302643011896</v>
+        <v>0.06975404391550086</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2331433530710599</v>
+        <v>0.230521248432333</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4200,19 +4200,19 @@
         <v>9907</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4987</v>
+        <v>5019</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17062</v>
+        <v>16408</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1689061521253359</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08501852234912366</v>
+        <v>0.08557883591720231</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2909083585446017</v>
+        <v>0.279759442988551</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -4221,19 +4221,19 @@
         <v>18691</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12073</v>
+        <v>11487</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27495</v>
+        <v>26725</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1502422833130886</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0970482958103111</v>
+        <v>0.09233686694588171</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2210193063526371</v>
+        <v>0.214822360628074</v>
       </c>
     </row>
     <row r="23">
@@ -4250,19 +4250,19 @@
         <v>56967</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>50422</v>
+        <v>50594</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>61647</v>
+        <v>61165</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8664064181379222</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.76685664692894</v>
+        <v>0.7694787515676661</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9375869735698811</v>
+        <v>0.930245956084499</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>45</v>
@@ -4271,19 +4271,19 @@
         <v>48745</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>41590</v>
+        <v>42244</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>53665</v>
+        <v>53633</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8310938478746641</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7090916414553984</v>
+        <v>0.7202405570114487</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9149814776508763</v>
+        <v>0.9144211640827977</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>99</v>
@@ -4292,19 +4292,19 @@
         <v>105712</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>96908</v>
+        <v>97678</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>112330</v>
+        <v>112916</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8497577166869114</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.778980693647363</v>
+        <v>0.785177639371926</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9029517041896888</v>
+        <v>0.9076631330541183</v>
       </c>
     </row>
     <row r="24">
@@ -4396,19 +4396,19 @@
         <v>10188</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5317</v>
+        <v>5394</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15123</v>
+        <v>15571</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4242640205173158</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2214059147356275</v>
+        <v>0.2246273749473073</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6297633776013452</v>
+        <v>0.6484290758133691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -4417,19 +4417,19 @@
         <v>4243</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8675</v>
+        <v>8908</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1676063656974022</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04210833013517142</v>
+        <v>0.04217156204285811</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3427219620135472</v>
+        <v>0.351910808842912</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -4438,19 +4438,19 @@
         <v>14431</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8445</v>
+        <v>8352</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21663</v>
+        <v>22123</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2925538356627586</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1712130793779244</v>
+        <v>0.1693278804520825</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4391883421028651</v>
+        <v>0.4485060700288599</v>
       </c>
     </row>
     <row r="26">
@@ -4467,19 +4467,19 @@
         <v>13825</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8890</v>
+        <v>8442</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18696</v>
+        <v>18619</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5757359794826842</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3702366223986549</v>
+        <v>0.3515709241866308</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7785940852643726</v>
+        <v>0.7753726250526928</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -4488,19 +4488,19 @@
         <v>21070</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16638</v>
+        <v>16405</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24247</v>
+        <v>24246</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8323936343025977</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6572780379864528</v>
+        <v>0.648089191157088</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9578916698648285</v>
+        <v>0.9578284379571419</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -4509,19 +4509,19 @@
         <v>34895</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>27663</v>
+        <v>27203</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40881</v>
+        <v>40974</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7074461643372414</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5608116578971351</v>
+        <v>0.55149392997114</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8287869206220756</v>
+        <v>0.8306721195479175</v>
       </c>
     </row>
     <row r="27">
@@ -4613,19 +4613,19 @@
         <v>73331</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>60104</v>
+        <v>59286</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>90662</v>
+        <v>89578</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2555352827993448</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2094405095363446</v>
+        <v>0.2065912829350988</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3159262754222935</v>
+        <v>0.3121480792131686</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>46</v>
@@ -4634,19 +4634,19 @@
         <v>48274</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>36948</v>
+        <v>35140</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>62214</v>
+        <v>61123</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1890086961053687</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.144664184189985</v>
+        <v>0.137585550048613</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2435895379763178</v>
+        <v>0.2393188441249156</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>115</v>
@@ -4655,19 +4655,19 @@
         <v>121605</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>101870</v>
+        <v>103575</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>141283</v>
+        <v>145328</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2242079730860666</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1878209631863896</v>
+        <v>0.1909658620308997</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2604894028154898</v>
+        <v>0.2679466037707434</v>
       </c>
     </row>
     <row r="29">
@@ -4684,19 +4684,19 @@
         <v>213641</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>196310</v>
+        <v>197394</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>226868</v>
+        <v>227686</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7444647172006551</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6840737245777064</v>
+        <v>0.6878519207868314</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7905594904636554</v>
+        <v>0.7934087170649011</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>193</v>
@@ -4705,19 +4705,19 @@
         <v>207131</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>193191</v>
+        <v>194282</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>218457</v>
+        <v>220265</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8109913038946314</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7564104620236822</v>
+        <v>0.7606811558750846</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8553358158100151</v>
+        <v>0.8624144499513872</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>399</v>
@@ -4726,19 +4726,19 @@
         <v>420772</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>401094</v>
+        <v>397049</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>440507</v>
+        <v>438802</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7757920269139333</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7395105971845102</v>
+        <v>0.7320533962292566</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8121790368136105</v>
+        <v>0.8090341379691003</v>
       </c>
     </row>
     <row r="30">
@@ -5074,19 +5074,19 @@
         <v>5982</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2793</v>
+        <v>2463</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10811</v>
+        <v>10610</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.311456127601334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1454243396266643</v>
+        <v>0.128243761621641</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5628738242291782</v>
+        <v>0.5524064182854788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -5095,19 +5095,19 @@
         <v>7291</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3069</v>
+        <v>3345</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13226</v>
+        <v>13266</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2415251426509192</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1016469472045151</v>
+        <v>0.1108080880783899</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4381230729898527</v>
+        <v>0.4394343363397391</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -5116,19 +5116,19 @@
         <v>13273</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7921</v>
+        <v>7765</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20506</v>
+        <v>20434</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2687164446512353</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1603704043606742</v>
+        <v>0.1572127178007854</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4151583594579042</v>
+        <v>0.4136945489964486</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>13224</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8395</v>
+        <v>8596</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16413</v>
+        <v>16743</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.688543872398666</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4371261757708215</v>
+        <v>0.4475935817145217</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8545756603733357</v>
+        <v>0.8717562383783589</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -5166,19 +5166,19 @@
         <v>22897</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16962</v>
+        <v>16922</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27119</v>
+        <v>26843</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7584748573490808</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5618769270101468</v>
+        <v>0.5605656636602607</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8983530527954835</v>
+        <v>0.8891919119216101</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -5187,19 +5187,19 @@
         <v>36121</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28888</v>
+        <v>28960</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41473</v>
+        <v>41629</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7312835553487647</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5848416405420958</v>
+        <v>0.5863054510035512</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8396295956393258</v>
+        <v>0.8427872821992145</v>
       </c>
     </row>
     <row r="6">
@@ -5291,19 +5291,19 @@
         <v>3192</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8149</v>
+        <v>7523</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1738963136049203</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05464152784069892</v>
+        <v>0.0554271234401082</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4439260249646148</v>
+        <v>0.4098281781816491</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -5312,19 +5312,19 @@
         <v>4158</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8742</v>
+        <v>8519</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2618575137728077</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06611164614809276</v>
+        <v>0.06554036638245861</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5505957249375386</v>
+        <v>0.5365406125068665</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -5333,19 +5333,19 @@
         <v>7350</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3202</v>
+        <v>3128</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13408</v>
+        <v>12813</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.214691412930278</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09353321556547656</v>
+        <v>0.09136059390390226</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3916349880941524</v>
+        <v>0.3742624304974163</v>
       </c>
     </row>
     <row r="8">
@@ -5362,19 +5362,19 @@
         <v>15165</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10208</v>
+        <v>10834</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17354</v>
+        <v>17340</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8261036863950797</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5560739750353876</v>
+        <v>0.5901718218183509</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9453584721593011</v>
+        <v>0.9445728765598919</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -5383,19 +5383,19 @@
         <v>11720</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7136</v>
+        <v>7359</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14828</v>
+        <v>14837</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7381424862271923</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4494042750624614</v>
+        <v>0.4634593874931335</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9338883538519073</v>
+        <v>0.9344596336175415</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -5404,19 +5404,19 @@
         <v>26885</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20827</v>
+        <v>21422</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31033</v>
+        <v>31107</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7853085870697221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.608365011905847</v>
+        <v>0.6257375695025839</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9064667844345234</v>
+        <v>0.9086394060960977</v>
       </c>
     </row>
     <row r="9">
@@ -5508,19 +5508,19 @@
         <v>5523</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1971</v>
+        <v>1839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10402</v>
+        <v>9649</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2377356547938091</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08482809484258207</v>
+        <v>0.07914777255248204</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4477438082984781</v>
+        <v>0.4153628889202191</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4766</v>
+        <v>5004</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1217244718468201</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3433336764293873</v>
+        <v>0.3604881300950583</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -5550,19 +5550,19 @@
         <v>7212</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3554</v>
+        <v>3470</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12985</v>
+        <v>12288</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1943430652027515</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09577633853684539</v>
+        <v>0.09351141909119345</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3498995888079221</v>
+        <v>0.3311044458446544</v>
       </c>
     </row>
     <row r="11">
@@ -5579,19 +5579,19 @@
         <v>17708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12829</v>
+        <v>13582</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21260</v>
+        <v>21392</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7622643452061909</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5522561917015218</v>
+        <v>0.5846371110797808</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9151719051574181</v>
+        <v>0.9208522274475179</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -5600,7 +5600,7 @@
         <v>12191</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9115</v>
+        <v>8877</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>13881</v>
@@ -5609,7 +5609,7 @@
         <v>0.8782755281531799</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6566663235706107</v>
+        <v>0.6395118699049402</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -5621,19 +5621,19 @@
         <v>29900</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24127</v>
+        <v>24824</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>33558</v>
+        <v>33642</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8056569347972484</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6501004111920778</v>
+        <v>0.6688955541553455</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9042236614631548</v>
+        <v>0.9064885809088066</v>
       </c>
     </row>
     <row r="12">
@@ -5725,19 +5725,19 @@
         <v>7509</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3531</v>
+        <v>3396</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13879</v>
+        <v>14270</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1955898914747649</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09198294967396804</v>
+        <v>0.08845636078235589</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.361517857181159</v>
+        <v>0.3716867930057934</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -5759,19 +5759,19 @@
         <v>7509</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3324</v>
+        <v>2955</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13877</v>
+        <v>14108</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1004386875027302</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04446101251209576</v>
+        <v>0.03952260362834372</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1856137235750791</v>
+        <v>0.1887012710736404</v>
       </c>
     </row>
     <row r="14">
@@ -5788,19 +5788,19 @@
         <v>30883</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24513</v>
+        <v>24122</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34861</v>
+        <v>34996</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8044101085252351</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6384821428188407</v>
+        <v>0.6283132069942079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9080170503260321</v>
+        <v>0.9115436392176443</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -5822,19 +5822,19 @@
         <v>67254</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>60886</v>
+        <v>60655</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>71439</v>
+        <v>71808</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8995613124972698</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8143862764249212</v>
+        <v>0.8112987289263597</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9555389874879066</v>
+        <v>0.9604773963716563</v>
       </c>
     </row>
     <row r="15">
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4730</v>
+        <v>4703</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1837694687619457</v>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4672366852089306</v>
+        <v>0.4645182180719205</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5688</v>
+        <v>5578</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1269326693385834</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3880796073014784</v>
+        <v>0.3805738757046072</v>
       </c>
     </row>
     <row r="17">
@@ -5989,7 +5989,7 @@
         <v>8264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5394</v>
+        <v>5421</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>10124</v>
@@ -5998,7 +5998,7 @@
         <v>0.8162305312380543</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5327633147910692</v>
+        <v>0.5354817819280795</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6023,7 +6023,7 @@
         <v>12797</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8969</v>
+        <v>9079</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>14657</v>
@@ -6032,7 +6032,7 @@
         <v>0.8730673306614166</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6119203926985215</v>
+        <v>0.6194261242953928</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -6127,19 +6127,19 @@
         <v>3569</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8819</v>
+        <v>8675</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1301854496069072</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03453564771671611</v>
+        <v>0.03464152419955078</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3216732885035247</v>
+        <v>0.316426783569221</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -6148,19 +6148,19 @@
         <v>3577</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9209</v>
+        <v>9277</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09810030394284483</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02528033583742625</v>
+        <v>0.02512099819221801</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2525742480052051</v>
+        <v>0.2544456682221983</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -6169,19 +6169,19 @@
         <v>7146</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2796</v>
+        <v>2746</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14479</v>
+        <v>14363</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1118719501221419</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04376899228218368</v>
+        <v>0.04298529546503377</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2266636098700149</v>
+        <v>0.2248470136521898</v>
       </c>
     </row>
     <row r="20">
@@ -6198,19 +6198,19 @@
         <v>23848</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18598</v>
+        <v>18742</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26470</v>
+        <v>26467</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8698145503930927</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6783267114964747</v>
+        <v>0.6835732164307794</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9654643522832839</v>
+        <v>0.9653584758004493</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -6219,19 +6219,19 @@
         <v>32882</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27250</v>
+        <v>27182</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35537</v>
+        <v>35543</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9018996960571551</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.747425751994795</v>
+        <v>0.7455543317778012</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9747196641625738</v>
+        <v>0.974879001807782</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>54</v>
@@ -6240,19 +6240,19 @@
         <v>56731</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>49398</v>
+        <v>49514</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61081</v>
+        <v>61131</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8881280498778581</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7733363901299852</v>
+        <v>0.7751529863478103</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9562310077178163</v>
+        <v>0.9570147045349663</v>
       </c>
     </row>
     <row r="21">
@@ -6344,19 +6344,19 @@
         <v>7525</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3147</v>
+        <v>3327</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12678</v>
+        <v>13019</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2846347274577422</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1190507940303129</v>
+        <v>0.125832411189809</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4795888293518797</v>
+        <v>0.4924674622632532</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -6365,19 +6365,19 @@
         <v>10735</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5773</v>
+        <v>5606</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16351</v>
+        <v>16144</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3916890405595965</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2106497800227654</v>
+        <v>0.2045573781643601</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5966048961403937</v>
+        <v>0.5890548998108737</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -6386,19 +6386,19 @@
         <v>18260</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11087</v>
+        <v>12091</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25561</v>
+        <v>25954</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3391268462012709</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2059225994087239</v>
+        <v>0.2245572090137205</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4747384880355502</v>
+        <v>0.4820259651757278</v>
       </c>
     </row>
     <row r="23">
@@ -6415,19 +6415,19 @@
         <v>18911</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13758</v>
+        <v>13417</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23289</v>
+        <v>23109</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7153652725422579</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5204111706481203</v>
+        <v>0.507532537736747</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8809492059696871</v>
+        <v>0.8741675888101911</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -6436,19 +6436,19 @@
         <v>16672</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11056</v>
+        <v>11263</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>21634</v>
+        <v>21801</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6083109594404036</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4033951038596064</v>
+        <v>0.4109451001891264</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7893502199772346</v>
+        <v>0.7954426218356399</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -6457,19 +6457,19 @@
         <v>35583</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>28282</v>
+        <v>27889</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>42756</v>
+        <v>41752</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.660873153798729</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5252615119644499</v>
+        <v>0.5179740348242722</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7940774005912762</v>
+        <v>0.7754427909862794</v>
       </c>
     </row>
     <row r="24">
@@ -6561,19 +6561,19 @@
         <v>7500</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3114</v>
+        <v>3432</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13726</v>
+        <v>14016</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2167302208459669</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08998133347542467</v>
+        <v>0.09917452496295395</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3966500337824589</v>
+        <v>0.4050307583718727</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -6582,19 +6582,19 @@
         <v>4919</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1818</v>
+        <v>1884</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9301</v>
+        <v>9159</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1839827569464599</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06799048783366093</v>
+        <v>0.07045922642931098</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3478871023793303</v>
+        <v>0.3425637071165714</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -6603,19 +6603,19 @@
         <v>12419</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7088</v>
+        <v>6772</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19204</v>
+        <v>19277</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2024572320265475</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1155498330545847</v>
+        <v>0.1103955330270756</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3130617003791937</v>
+        <v>0.3142546646548827</v>
       </c>
     </row>
     <row r="26">
@@ -6632,19 +6632,19 @@
         <v>27106</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20880</v>
+        <v>20590</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>31492</v>
+        <v>31174</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7832697791540331</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6033499662175411</v>
+        <v>0.5949692416281275</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9100186665245753</v>
+        <v>0.9008254750370464</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -6653,19 +6653,19 @@
         <v>21817</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17435</v>
+        <v>17577</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24918</v>
+        <v>24852</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8160172430535402</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6521128976206699</v>
+        <v>0.6574362928834285</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9320095121663391</v>
+        <v>0.9295407735706891</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>46</v>
@@ -6674,19 +6674,19 @@
         <v>48923</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>42138</v>
+        <v>42065</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>54254</v>
+        <v>54570</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7975427679734525</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6869382996208064</v>
+        <v>0.6857453353451174</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8844501669454153</v>
+        <v>0.8896044669729244</v>
       </c>
     </row>
     <row r="27">
@@ -6778,19 +6778,19 @@
         <v>42660</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>32470</v>
+        <v>32501</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55711</v>
+        <v>56229</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2157085934024668</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1641820121832644</v>
+        <v>0.1643357651045166</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2816978945282498</v>
+        <v>0.2843156618762898</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -6799,19 +6799,19 @@
         <v>32369</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>22719</v>
+        <v>22600</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>43988</v>
+        <v>43647</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1690706121728705</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1186644548354692</v>
+        <v>0.1180463624590602</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.22975898931318</v>
+        <v>0.2279754496763468</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>72</v>
@@ -6820,19 +6820,19 @@
         <v>75030</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>60745</v>
+        <v>59660</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>93206</v>
+        <v>92264</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1927680054757041</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1560662216198467</v>
+        <v>0.1532792721136718</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2394675345479297</v>
+        <v>0.2370460040923512</v>
       </c>
     </row>
     <row r="29">
@@ -6849,19 +6849,19 @@
         <v>155109</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>142058</v>
+        <v>141540</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>165299</v>
+        <v>165268</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7842914065975332</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7183021054717502</v>
+        <v>0.7156843381237098</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8358179878167354</v>
+        <v>0.8356642348954828</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>141</v>
@@ -6870,19 +6870,19 @@
         <v>159084</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>147465</v>
+        <v>147806</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>168734</v>
+        <v>168853</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8309293878271296</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7702410106868209</v>
+        <v>0.7720245503236532</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8813355451645312</v>
+        <v>0.8819536375409399</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>291</v>
@@ -6891,19 +6891,19 @@
         <v>314193</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>296017</v>
+        <v>296959</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>328478</v>
+        <v>329563</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8072319945242959</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7605324654520703</v>
+        <v>0.7629539959076491</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8439337783801534</v>
+        <v>0.8467207278863284</v>
       </c>
     </row>
     <row r="30">
@@ -7239,19 +7239,19 @@
         <v>11527</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6624</v>
+        <v>5992</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17047</v>
+        <v>17286</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4262981720865443</v>
+        <v>0.4262981720865441</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2449943040355204</v>
+        <v>0.2215986261900784</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6304420901541831</v>
+        <v>0.6393103038984898</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -7260,19 +7260,19 @@
         <v>4507</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2133</v>
+        <v>1928</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7913</v>
+        <v>7655</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.148075006934119</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07008611101748416</v>
+        <v>0.06335782494417275</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2599859044943769</v>
+        <v>0.2515111469178338</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -7281,19 +7281,19 @@
         <v>16033</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10447</v>
+        <v>10122</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23716</v>
+        <v>24436</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2789671132038569</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1817660606700643</v>
+        <v>0.1761227458789224</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4126351685700444</v>
+        <v>0.4251577346686616</v>
       </c>
     </row>
     <row r="5">
@@ -7310,19 +7310,19 @@
         <v>15512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9992</v>
+        <v>9753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20415</v>
+        <v>21047</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5737018279134559</v>
+        <v>0.5737018279134557</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3695579098458167</v>
+        <v>0.3606896961015102</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7550056959644796</v>
+        <v>0.7784013738099215</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -7331,19 +7331,19 @@
         <v>25928</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22522</v>
+        <v>22780</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28302</v>
+        <v>28507</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.851924993065881</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7400140955056225</v>
+        <v>0.7484888530821663</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9299138889825158</v>
+        <v>0.9366421750558274</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>70</v>
@@ -7352,19 +7352,19 @@
         <v>41441</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33758</v>
+        <v>33038</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47027</v>
+        <v>47352</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7210328867961432</v>
+        <v>0.721032886796143</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5873648314299554</v>
+        <v>0.5748422653313385</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8182339393299357</v>
+        <v>0.8238772541210775</v>
       </c>
     </row>
     <row r="6">
@@ -7456,19 +7456,19 @@
         <v>8371</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2931</v>
+        <v>3505</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15429</v>
+        <v>16075</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3388827730863777</v>
+        <v>0.3388827730863778</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1186500679334732</v>
+        <v>0.1418736515136145</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6245984910746285</v>
+        <v>0.6507425724538377</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -7477,19 +7477,19 @@
         <v>6423</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3139</v>
+        <v>2985</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11340</v>
+        <v>12393</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.184942413623636</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09037896220395279</v>
+        <v>0.08595895634756687</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3265254089582174</v>
+        <v>0.3568258993075601</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -7498,19 +7498,19 @@
         <v>14794</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8013</v>
+        <v>8206</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23374</v>
+        <v>23288</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2489273467873918</v>
+        <v>0.2489273467873916</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1348193124609408</v>
+        <v>0.1380771462580687</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3932827373520749</v>
+        <v>0.3918384791985227</v>
       </c>
     </row>
     <row r="8">
@@ -7527,19 +7527,19 @@
         <v>16332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9274</v>
+        <v>8628</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21772</v>
+        <v>21198</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6611172269136222</v>
+        <v>0.6611172269136223</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3754015089253713</v>
+        <v>0.3492574275461623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8813499320665266</v>
+        <v>0.8581263484863855</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -7548,19 +7548,19 @@
         <v>28307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23390</v>
+        <v>22337</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31591</v>
+        <v>31745</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8150575863763642</v>
+        <v>0.8150575863763641</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6734745910417831</v>
+        <v>0.6431741006924401</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9096210377960472</v>
+        <v>0.9140410436524334</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>54</v>
@@ -7569,19 +7569,19 @@
         <v>44639</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>36059</v>
+        <v>36145</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>51420</v>
+        <v>51227</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7510726532126084</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6067172626479249</v>
+        <v>0.6081615208014776</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8651806875390586</v>
+        <v>0.8619228537419313</v>
       </c>
     </row>
     <row r="9">
@@ -7673,19 +7673,19 @@
         <v>2497</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6288</v>
+        <v>6580</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1119361627620457</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02839548674987905</v>
+        <v>0.02856384801086747</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2818199015894793</v>
+        <v>0.2949066911559852</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -7694,19 +7694,19 @@
         <v>4396</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1489</v>
+        <v>1862</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9168</v>
+        <v>9123</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1646245443138554</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05577464915414958</v>
+        <v>0.06971744043653019</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3433064644348687</v>
+        <v>0.3416345601058426</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -7715,19 +7715,19 @@
         <v>6894</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3400</v>
+        <v>2929</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12740</v>
+        <v>12261</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1406419658157897</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0693741981945967</v>
+        <v>0.05974832707166731</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2599304703362794</v>
+        <v>0.2501453883176266</v>
       </c>
     </row>
     <row r="11">
@@ -7744,19 +7744,19 @@
         <v>19814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16023</v>
+        <v>15731</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21677</v>
+        <v>21674</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8880638372379542</v>
+        <v>0.8880638372379543</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7181800984105209</v>
+        <v>0.7050933088440156</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.971604513250121</v>
+        <v>0.9714361519891324</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -7765,19 +7765,19 @@
         <v>22309</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17537</v>
+        <v>17582</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25216</v>
+        <v>24843</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8353754556861445</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6566935355651312</v>
+        <v>0.6583654398941572</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9442253508458505</v>
+        <v>0.9302825595634696</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>63</v>
@@ -7786,19 +7786,19 @@
         <v>42121</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>36275</v>
+        <v>36754</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>45615</v>
+        <v>46086</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8593580341842103</v>
+        <v>0.8593580341842104</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7400695296637206</v>
+        <v>0.7498546116823734</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9306258018054032</v>
+        <v>0.9402516729283328</v>
       </c>
     </row>
     <row r="12">
@@ -7890,19 +7890,19 @@
         <v>8902</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2591</v>
+        <v>2503</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17629</v>
+        <v>17742</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3168255260050243</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09222100413625078</v>
+        <v>0.08908401076009427</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6274618846981098</v>
+        <v>0.6314922358460306</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -7911,19 +7911,19 @@
         <v>10511</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5352</v>
+        <v>5117</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15139</v>
+        <v>15225</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5418493004792101</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2759047864751551</v>
+        <v>0.2637763796474435</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7804258710008721</v>
+        <v>0.7848368003324556</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -7932,19 +7932,19 @@
         <v>19412</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9477</v>
+        <v>10373</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29309</v>
+        <v>29060</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4087345778484431</v>
+        <v>0.408734577848443</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1995512242170007</v>
+        <v>0.2184107690386056</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6171134804070013</v>
+        <v>0.6118670248435465</v>
       </c>
     </row>
     <row r="14">
@@ -7961,19 +7961,19 @@
         <v>19194</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10467</v>
+        <v>10354</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25505</v>
+        <v>25593</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6831744739949758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3725381153018902</v>
+        <v>0.3685077641539687</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9077789958637491</v>
+        <v>0.9109159892399057</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -7982,19 +7982,19 @@
         <v>8888</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4260</v>
+        <v>4174</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14047</v>
+        <v>14282</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4581506995207899</v>
+        <v>0.4581506995207898</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.219574128999128</v>
+        <v>0.2151631996675454</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7240952135248447</v>
+        <v>0.7362236203525563</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -8003,19 +8003,19 @@
         <v>28082</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18185</v>
+        <v>18434</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38017</v>
+        <v>37121</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5912654221515571</v>
+        <v>0.5912654221515569</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3828865195929987</v>
+        <v>0.3881329751564536</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8004487757829992</v>
+        <v>0.7815892309613944</v>
       </c>
     </row>
     <row r="15">
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4618</v>
+        <v>4036</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2189341288357157</v>
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6164145209564068</v>
+        <v>0.5388034592716245</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4640</v>
+        <v>4600</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2045840588479324</v>
@@ -8153,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5788162116027724</v>
+        <v>0.5738060677745211</v>
       </c>
     </row>
     <row r="17">
@@ -8170,16 +8170,16 @@
         <v>5851</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2878</v>
+        <v>3453</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>7491</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7810658711642844</v>
+        <v>0.7810658711642843</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3842459850039058</v>
+        <v>0.4609846668705204</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -8204,16 +8204,16 @@
         <v>6376</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3376</v>
+        <v>3416</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>8016</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7954159411520677</v>
+        <v>0.7954159411520676</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4211837883972274</v>
+        <v>0.4261939322254787</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -8308,19 +8308,19 @@
         <v>2957</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7232</v>
+        <v>7100</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1136646818901798</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02912010476929994</v>
+        <v>0.02855792017551604</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2779432223551725</v>
+        <v>0.2728960147857694</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -8329,19 +8329,19 @@
         <v>1625</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4366</v>
+        <v>4363</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05776904008644568</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01315068571545106</v>
+        <v>0.01339500768019296</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1551999463585039</v>
+        <v>0.1551086334275896</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -8350,19 +8350,19 @@
         <v>4582</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2147</v>
+        <v>1979</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9953</v>
+        <v>9378</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08462684123978298</v>
+        <v>0.08462684123978299</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03964381669534343</v>
+        <v>0.03654768669394656</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1838157878131055</v>
+        <v>0.1731971198183866</v>
       </c>
     </row>
     <row r="20">
@@ -8379,19 +8379,19 @@
         <v>23061</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18786</v>
+        <v>18918</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25260</v>
+        <v>25275</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8863353181098202</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7220567776448272</v>
+        <v>0.7271039852142307</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9708798952306998</v>
+        <v>0.9714420798244839</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -8400,19 +8400,19 @@
         <v>26505</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23764</v>
+        <v>23767</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27760</v>
+        <v>27753</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9422309599135544</v>
+        <v>0.9422309599135543</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8448000536414958</v>
+        <v>0.8448913665724104</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.986849314284549</v>
+        <v>0.986604992319807</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>96</v>
@@ -8421,19 +8421,19 @@
         <v>49566</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>44195</v>
+        <v>44770</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>52001</v>
+        <v>52169</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.915373158760217</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8161842121868941</v>
+        <v>0.8268028801816131</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9603561833046564</v>
+        <v>0.9634523133060533</v>
       </c>
     </row>
     <row r="21">
@@ -8525,19 +8525,19 @@
         <v>19687</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12094</v>
+        <v>10798</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27565</v>
+        <v>27485</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3527909036702869</v>
+        <v>0.3527909036702868</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2167293497655216</v>
+        <v>0.1934946108960672</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4939778565630233</v>
+        <v>0.4925301747900861</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -8546,19 +8546,19 @@
         <v>11703</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5970</v>
+        <v>6580</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19306</v>
+        <v>19773</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2002766918152228</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.102168215124132</v>
+        <v>0.1126102600747863</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3304019613802073</v>
+        <v>0.3383795507976031</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -8567,19 +8567,19 @@
         <v>31390</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21820</v>
+        <v>22481</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42844</v>
+        <v>42435</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2747783774690969</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1910079313621945</v>
+        <v>0.1967919946309945</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3750508161631881</v>
+        <v>0.3714649578510024</v>
       </c>
     </row>
     <row r="23">
@@ -8596,19 +8596,19 @@
         <v>36116</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28238</v>
+        <v>28318</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>43709</v>
+        <v>45005</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6472090963297132</v>
+        <v>0.6472090963297131</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5060221434369766</v>
+        <v>0.5074698252099139</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7832706502344784</v>
+        <v>0.8065053891039328</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>64</v>
@@ -8617,19 +8617,19 @@
         <v>46730</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>39127</v>
+        <v>38660</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>52463</v>
+        <v>51853</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7997233081847772</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6695980386197926</v>
+        <v>0.6616204492023967</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.897831784875868</v>
+        <v>0.8873897399252137</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>91</v>
@@ -8638,19 +8638,19 @@
         <v>82846</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>71392</v>
+        <v>71801</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>92416</v>
+        <v>91755</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7252216225309032</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6249491838368122</v>
+        <v>0.6285350421489974</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8089920686378056</v>
+        <v>0.8032080053690056</v>
       </c>
     </row>
     <row r="24">
@@ -8742,19 +8742,19 @@
         <v>3776</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8663</v>
+        <v>8728</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1327131944512623</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03260190904594868</v>
+        <v>0.03226920060010828</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3044870341479838</v>
+        <v>0.3067918029379683</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -8763,19 +8763,19 @@
         <v>11860</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7303</v>
+        <v>7437</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17333</v>
+        <v>17456</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3506450674219172</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2159096279530029</v>
+        <v>0.2198931622834852</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5124602577492486</v>
+        <v>0.516098404499799</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -8784,19 +8784,19 @@
         <v>15636</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9899</v>
+        <v>10123</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22847</v>
+        <v>23294</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.251081150291506</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1589513204022431</v>
+        <v>0.1625522370988074</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.36687245710357</v>
+        <v>0.3740544535406465</v>
       </c>
     </row>
     <row r="26">
@@ -8813,19 +8813,19 @@
         <v>24674</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19787</v>
+        <v>19722</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>27522</v>
+        <v>27532</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8672868055487376</v>
+        <v>0.8672868055487375</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6955129658520162</v>
+        <v>0.693208197062032</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9673980909540513</v>
+        <v>0.9677307993998918</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>29</v>
@@ -8834,19 +8834,19 @@
         <v>21963</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16490</v>
+        <v>16367</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26520</v>
+        <v>26386</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.649354932578083</v>
+        <v>0.6493549325780829</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4875397422507516</v>
+        <v>0.4839015955002011</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7840903720469972</v>
+        <v>0.7801068377165148</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>49</v>
@@ -8855,19 +8855,19 @@
         <v>46638</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39427</v>
+        <v>38980</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>52375</v>
+        <v>52151</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7489188497084939</v>
+        <v>0.7489188497084941</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6331275428964297</v>
+        <v>0.6259455464593527</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8410486795977569</v>
+        <v>0.8374477629011927</v>
       </c>
     </row>
     <row r="27">
@@ -8959,19 +8959,19 @@
         <v>59357</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>44562</v>
+        <v>45697</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>73981</v>
+        <v>77289</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2699134302077135</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2026383402465131</v>
+        <v>0.2077981740745277</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3364132668823666</v>
+        <v>0.3514563479281673</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>59</v>
@@ -8980,19 +8980,19 @@
         <v>51025</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>39633</v>
+        <v>38743</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>67020</v>
+        <v>66894</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2197644177356747</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1706999571345903</v>
+        <v>0.1668654857630554</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2886570450938562</v>
+        <v>0.2881133671487925</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>109</v>
@@ -9001,19 +9001,19 @@
         <v>110382</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>92154</v>
+        <v>90633</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>130724</v>
+        <v>130427</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2441584401993203</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2038398637151009</v>
+        <v>0.200474093143238</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2891545625034595</v>
+        <v>0.2884977100951789</v>
       </c>
     </row>
     <row r="29">
@@ -9030,19 +9030,19 @@
         <v>160554</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>145930</v>
+        <v>142622</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>175349</v>
+        <v>174214</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7300865697922864</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6635867331176338</v>
+        <v>0.6485436520718326</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7973616597534872</v>
+        <v>0.7922018259254718</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>300</v>
@@ -9051,19 +9051,19 @@
         <v>181155</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>165160</v>
+        <v>165286</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>192547</v>
+        <v>193437</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7802355822643254</v>
+        <v>0.7802355822643252</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.711342954906144</v>
+        <v>0.7118866328512083</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8293000428654097</v>
+        <v>0.8331345142369447</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>461</v>
@@ -9072,19 +9072,19 @@
         <v>341709</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>321367</v>
+        <v>321664</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>359937</v>
+        <v>361458</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7558415598006797</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7108454374965403</v>
+        <v>0.7115022899048212</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7961601362848989</v>
+        <v>0.7995259068567623</v>
       </c>
     </row>
     <row r="30">
